--- a/TBEA/BusinessPerformance/Documentation/经营数据平台-指标/经营管控平台指标流程整理.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/经营数据平台-指标/经营管控平台指标流程整理.xlsx
@@ -116,22 +116,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="Object 1" hidden="1">
+            <xdr:cNvPr id="3074" name="Object 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3073"/>
+                  <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -162,22 +162,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>447675</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4098" name="Object 2" hidden="1">
+            <xdr:cNvPr id="4099" name="Object 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4098"/>
+                  <a14:compatExt spid="_x0000_s4099"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -511,27 +511,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="3073" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+        <oleObject progId="Visio.Drawing.11" shapeId="3074" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>304800</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="3073" r:id="rId4"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="3074" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -560,27 +560,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="4098" r:id="rId4">
+        <oleObject progId="Visio.Drawing.11" shapeId="4099" r:id="rId4">
           <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:colOff>447675</xdr:colOff>
                 <xdr:row>60</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="4098" r:id="rId4"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="4099" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/TBEA/BusinessPerformance/Documentation/经营数据平台-指标/经营管控平台指标流程整理.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/经营数据平台-指标/经营管控平台指标流程整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="录入流" sheetId="2" r:id="rId1"/>
@@ -116,15 +116,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>304800</xdr:rowOff>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -490,7 +490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
@@ -516,15 +518,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>304800</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -542,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/TBEA/BusinessPerformance/Documentation/经营数据平台-指标/经营管控平台指标流程整理.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/经营数据平台-指标/经营管控平台指标流程整理.xlsx
@@ -4,24 +4,278 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="录入流" sheetId="2" r:id="rId1"/>
     <sheet name="审核流" sheetId="3" r:id="rId2"/>
+    <sheet name="页面分类筛选" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>录入流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>审核流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面分类：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首月
+次月
+末月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售收入指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净现金流指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司整体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入签约分结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分产业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输变电产业集团</t>
+  </si>
+  <si>
+    <t>线缆产业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变压器产业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北输变电集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方输变电集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润指标完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售收入指标完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净现金流指标完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款指标完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货指标完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务指标完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体指标完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营指标完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营指标预计情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新能源事业部</t>
+  </si>
+  <si>
+    <t>能源事业部</t>
+  </si>
+  <si>
+    <t>众和公司</t>
+  </si>
+  <si>
+    <t>进出口公司</t>
+  </si>
+  <si>
+    <t>国际工程公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际工程公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输变电产业集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈变公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衡变公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新变公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德缆公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新揽公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁揽公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能动公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天池能源+新疆能源公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆能源公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天池能源公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新特能源公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新能源公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分项目公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目公司列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目公司列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,10 +324,49 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -87,12 +380,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -544,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -587,4 +910,720 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:N85"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="20.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="2" customWidth="1"/>
+    <col min="9" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="22.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D9" s="9"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D10" s="9"/>
+      <c r="E10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D13" s="9"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D17" s="9"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D19" s="9"/>
+      <c r="E19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D20" s="9"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D21" s="9"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D23" s="9"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D25" s="9"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D27" s="9"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D29" s="9"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="4:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D33" s="9"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D34" s="9"/>
+      <c r="E34" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D35" s="9"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D36" s="9"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D37" s="9"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D38" s="9"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D39" s="9"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D40" s="9"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D41" s="9"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D42" s="9"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D43" s="9"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D44" s="9"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D45" s="9"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D46" s="9"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="D57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="D58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="D59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="D60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G65" s="5"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G66" s="5"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G67" s="5"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G68" s="5"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G69" s="5"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G70" s="5"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G71" s="5"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G72" s="5"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G73" s="5"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G74" s="5"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G75" s="5"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G76" s="5"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G77" s="5"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G78" s="5"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G79" s="5"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G80" s="5"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G81" s="5"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G82" s="5"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G83" s="5"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G84" s="5"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="H85" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="D8:D46"/>
+    <mergeCell ref="E10:E18"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="E34:E46"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>